--- a/10.JExam/mini_Project/클래스설계서.xlsx
+++ b/10.JExam/mini_Project/클래스설계서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="9690" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="9150" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="클래스 설계서" sheetId="1" r:id="rId4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
   <x:si>
     <x:t>gethLoginCheckQuery()</x:t>
   </x:si>
@@ -34,24 +34,57 @@
     <x:t>kmemSelectId(KckMemberVO kvo)</x:t>
   </x:si>
   <x:si>
+    <x:t>getKboardSelectAllQueryMap()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>actionPerformed(ActionEvent e)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>numPad(String s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setHobby(String s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setJob(String s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gender(String s)</x:t>
+  </x:si>
+  <x:si>
     <x:t>구현체</x:t>
   </x:si>
   <x:si>
     <x:t>게시판</x:t>
   </x:si>
   <x:si>
+    <x:t>클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수</x:t>
+  </x:si>
+  <x:si>
     <x:t>인터페이스 클래스</x:t>
   </x:si>
   <x:si>
     <x:t>일반클래스</x:t>
   </x:si>
   <x:si>
+    <x:t>conClose(Connection conn, PreparedStatement pstmt)</x:t>
+  </x:si>
+  <x:si>
     <x:t>printlnKckMemberVO(KckMemberVO kvo)</x:t>
   </x:si>
   <x:si>
     <x:t>KckLoginServiceImpl</x:t>
   </x:si>
   <x:si>
+    <x:t>kboardSelectAll()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ymdNum()</x:t>
+  </x:si>
+  <x:si>
     <x:t>jtablePrint(ArrayList&lt;KosmoMemberVO&gt; aList, int rowCnt, int columnCnt)</x:t>
   </x:si>
   <x:si>
@@ -76,6 +109,9 @@
     <x:t>KckLogin</x:t>
   </x:si>
   <x:si>
+    <x:t>KckBoardVO(String bnum, String bsubject...)</x:t>
+  </x:si>
+  <x:si>
     <x:t>KosmoMemberVO(String knum, String kname...)</x:t>
   </x:si>
   <x:si>
@@ -88,15 +124,54 @@
     <x:t>멤버</x:t>
   </x:si>
   <x:si>
+    <x:t>printlnKbeBoardVO (KckBoardVO kvo)</x:t>
+  </x:si>
+  <x:si>
     <x:t>KckBoardScr</x:t>
   </x:si>
   <x:si>
+    <x:t>KckLogin()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KckMember()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kboardSelect(KckBoardVO kvo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kboardInsert(KckBoardVO kvo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kboardUpdate(KckBoardVO kvo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kboardDelete(KckBoardVO kvo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KckMemberVO()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tel(String s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hp(String s)</x:t>
+  </x:si>
+  <x:si>
     <x:t>HbeMemberScr</x:t>
   </x:si>
   <x:si>
     <x:t>+main():void</x:t>
   </x:si>
   <x:si>
+    <x:t>yyyy()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kmDelete(String kname, String kid ...)</x:t>
+  </x:si>
+  <x:si>
     <x:t>jtMSetText()</x:t>
   </x:si>
   <x:si>
@@ -106,6 +181,9 @@
     <x:t>KckMemberAll</x:t>
   </x:si>
   <x:si>
+    <x:t>cTime()</x:t>
+  </x:si>
+  <x:si>
     <x:t>공통코드</x:t>
   </x:si>
   <x:si>
@@ -115,6 +193,9 @@
     <x:t>kLoginCheck(String kid, String kpw)</x:t>
   </x:si>
   <x:si>
+    <x:t>comboMonth()</x:t>
+  </x:si>
+  <x:si>
     <x:t>valueClear()</x:t>
   </x:si>
   <x:si>
@@ -124,6 +205,12 @@
     <x:t>KckLoginDAOImpl</x:t>
   </x:si>
   <x:si>
+    <x:t>hobby(String s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>job(String s)</x:t>
+  </x:si>
+  <x:si>
     <x:t>KckMemberDAOImpl</x:t>
   </x:si>
   <x:si>
@@ -139,6 +226,12 @@
     <x:t>KckBoardServiceImpl</x:t>
   </x:si>
   <x:si>
+    <x:t>kboardUpdate()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kboardInsert()</x:t>
+  </x:si>
+  <x:si>
     <x:t>KckMemberSqlMap</x:t>
   </x:si>
   <x:si>
@@ -160,21 +253,33 @@
     <x:t>KckMemberChabun</x:t>
   </x:si>
   <x:si>
+    <x:t>birth(String s)</x:t>
+  </x:si>
+  <x:si>
     <x:t>일반클래스, 메인함수 O</x:t>
   </x:si>
   <x:si>
     <x:t>KckBoardSqlMap</x:t>
   </x:si>
   <x:si>
+    <x:t>kboardSelect()</x:t>
+  </x:si>
+  <x:si>
     <x:t>kmemSelectAll()</x:t>
   </x:si>
   <x:si>
     <x:t>KckMemberDAO</x:t>
   </x:si>
   <x:si>
+    <x:t>getConnection()</x:t>
+  </x:si>
+  <x:si>
     <x:t>KckLoginSqlMap</x:t>
   </x:si>
   <x:si>
+    <x:t>kboardDelete()</x:t>
+  </x:si>
+  <x:si>
     <x:t>KckBoard</x:t>
   </x:si>
   <x:si>
@@ -184,6 +289,9 @@
     <x:t>KckMember</x:t>
   </x:si>
   <x:si>
+    <x:t>kmUpdate(String kname, String kid ...)</x:t>
+  </x:si>
+  <x:si>
     <x:t>+hmemInsert():void</x:t>
   </x:si>
   <x:si>
@@ -193,15 +301,30 @@
     <x:t>+hmemUpdate():void</x:t>
   </x:si>
   <x:si>
+    <x:t>conClose(Connection conn, PreparedStatement pstmt, ResultSet rsRs)</x:t>
+  </x:si>
+  <x:si>
     <x:t>DateUtil</x:t>
   </x:si>
   <x:si>
     <x:t>+hmemSelect(String):void</x:t>
   </x:si>
   <x:si>
+    <x:t>yyyymmdd()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yyyymm()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KckMemberAll()</x:t>
+  </x:si>
+  <x:si>
     <x:t>com.kosmo.kck.member</x:t>
   </x:si>
   <x:si>
+    <x:t>printKbeBoardVO (KckBoardVO kvo)</x:t>
+  </x:si>
+  <x:si>
     <x:t>kmemInsert(KckMemberVO kvo)</x:t>
   </x:si>
   <x:si>
@@ -215,6 +338,9 @@
   </x:si>
   <x:si>
     <x:t>CodeUtil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래스 설계서</x:t>
   </x:si>
   <x:si>
     <x:t>get()</x:t>
@@ -243,18 +369,39 @@
     <x:t>kLoginCheck(KckMemberVO kvo)</x:t>
   </x:si>
   <x:si>
+    <x:t>fosClose(FileOutputStream fos)</x:t>
+  </x:si>
+  <x:si>
     <x:t>기본생성자</x:t>
   </x:si>
   <x:si>
     <x:t>getKckMemberSelectNameQuery()</x:t>
   </x:si>
   <x:si>
+    <x:t>fisClose(FileInputStream fis)</x:t>
+  </x:si>
+  <x:si>
     <x:t>com.kosmo.kck.common</x:t>
   </x:si>
   <x:si>
+    <x:t>getParameter(int iVal)</x:t>
+  </x:si>
+  <x:si>
     <x:t>kmMember()</x:t>
   </x:si>
   <x:si>
+    <x:t>gubunNum()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comboDay()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comboYear()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KckBoard()</x:t>
+  </x:si>
+  <x:si>
     <x:t>getKckMemberChabunQuery()</x:t>
   </x:si>
   <x:si>
@@ -267,17 +414,32 @@
     <x:t>getKckMemberUpdateQuery()</x:t>
   </x:si>
   <x:si>
+    <x:t>getKboardChabunQueryMap()</x:t>
+  </x:si>
+  <x:si>
     <x:t>getKckMembeDeleteQuery()</x:t>
   </x:si>
   <x:si>
     <x:t>getKckMemberSelectIdQuery()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>getKboardSelectQueryMap()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>getKboardInsertQueryMap()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>getKboardDeleteQueryMap()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>getKboardUpdateQueryMap()</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="7">
+  <x:fonts count="9">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -314,8 +476,50 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="19"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="19"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="13"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="13"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -328,8 +532,14 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffd9d9d9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="13">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -355,6 +565,160 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -367,7 +731,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="35">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -393,44 +757,322 @@
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1090,727 +1732,1504 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:E102"/>
+  <x:dimension ref="B1:F175"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D83" activeCellId="0" sqref="D83:D83"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B1" activeCellId="0" sqref="B1:E3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="2" max="2" width="21.51953125" style="7" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="21.1875" style="6" customWidth="1"/>
-    <x:col min="4" max="4" width="13.3125" style="4" customWidth="1"/>
+    <x:col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="22.71875" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="21.51953125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:2">
-      <x:c r="B2" s="7" t="s">
+    <x:row r="1" spans="2:6" ht="28.149999999999999" customHeight="1">
+      <x:c r="B1" s="7" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="9"/>
+      <x:c r="F1" s="17"/>
+    </x:row>
+    <x:row r="2" spans="2:6" customFormat="1" ht="27.75">
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2" s="11"/>
+      <x:c r="E2" s="12"/>
+      <x:c r="F2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="2:6" customFormat="1" ht="27.75">
+      <x:c r="B3" s="13"/>
+      <x:c r="C3" s="14"/>
+      <x:c r="D3" s="14"/>
+      <x:c r="E3" s="15"/>
+      <x:c r="F3" s="17"/>
+    </x:row>
+    <x:row r="4" spans="2:6" customFormat="1" ht="27.75">
+      <x:c r="B4" s="34"/>
+      <x:c r="C4" s="31" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D4" s="32" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="33" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F4" s="16"/>
+    </x:row>
+    <x:row r="5" spans="2:5">
+      <x:c r="B5" s="18" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C5" s="18" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D5" s="19"/>
+      <x:c r="E5" s="20"/>
+    </x:row>
+    <x:row r="6" spans="2:5">
+      <x:c r="B6" s="19"/>
+      <x:c r="C6" s="18"/>
+      <x:c r="D6" s="18" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E6" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:5" customFormat="1">
+      <x:c r="B7" s="19"/>
+      <x:c r="C7" s="18"/>
+      <x:c r="D7" s="19" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E7" s="20" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:5">
+      <x:c r="B8" s="19"/>
+      <x:c r="C8" s="18"/>
+      <x:c r="D8" s="19"/>
+      <x:c r="E8" s="20" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:5" customFormat="1">
+      <x:c r="B9" s="19"/>
+      <x:c r="C9" s="18"/>
+      <x:c r="D9" s="19"/>
+      <x:c r="E9" s="20" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:5" customFormat="1">
+      <x:c r="B10" s="19"/>
+      <x:c r="C10" s="18"/>
+      <x:c r="D10" s="19"/>
+      <x:c r="E10" s="20" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:5">
+      <x:c r="B11" s="19"/>
+      <x:c r="C11" s="18"/>
+      <x:c r="D11" s="19"/>
+      <x:c r="E11" s="20" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:5">
+      <x:c r="B12" s="19"/>
+      <x:c r="C12" s="18"/>
+      <x:c r="D12" s="19"/>
+      <x:c r="E12" s="20" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:5">
+      <x:c r="B13" s="19"/>
+      <x:c r="C13" s="18"/>
+      <x:c r="D13" s="19"/>
+      <x:c r="E13" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:5">
+      <x:c r="B14" s="19"/>
+      <x:c r="C14" s="18"/>
+      <x:c r="D14" s="18" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E14" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:5" customFormat="1">
+      <x:c r="B15" s="19"/>
+      <x:c r="C15" s="18"/>
+      <x:c r="D15" s="19" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E15" s="20" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:5" customFormat="1">
+      <x:c r="B16" s="19"/>
+      <x:c r="C16" s="18"/>
+      <x:c r="D16" s="19"/>
+      <x:c r="E16" s="20" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="2:2">
-      <x:c r="B3" s="7" t="s">
+    <x:row r="17" spans="2:5" customFormat="1">
+      <x:c r="B17" s="19"/>
+      <x:c r="C17" s="18"/>
+      <x:c r="D17" s="19"/>
+      <x:c r="E17" s="20" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:5" customFormat="1">
+      <x:c r="B18" s="19"/>
+      <x:c r="C18" s="18"/>
+      <x:c r="D18" s="19"/>
+      <x:c r="E18" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:5">
+      <x:c r="B19" s="19"/>
+      <x:c r="C19" s="18"/>
+      <x:c r="D19" s="18" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E19" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:5" customFormat="1">
+      <x:c r="B20" s="19"/>
+      <x:c r="C20" s="18"/>
+      <x:c r="D20" s="19"/>
+      <x:c r="E20" s="20" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:5" customFormat="1">
+      <x:c r="B21" s="19"/>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="19"/>
+      <x:c r="E21" s="20" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:5" customFormat="1">
+      <x:c r="B22" s="19"/>
+      <x:c r="C22" s="18"/>
+      <x:c r="D22" s="19"/>
+      <x:c r="E22" s="20" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:5" customFormat="1">
+      <x:c r="B23" s="19"/>
+      <x:c r="C23" s="18"/>
+      <x:c r="D23" s="19"/>
+      <x:c r="E23" s="20" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:5" customFormat="1">
+      <x:c r="B24" s="19"/>
+      <x:c r="C24" s="18"/>
+      <x:c r="D24" s="19"/>
+      <x:c r="E24" s="20" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:5" customFormat="1">
+      <x:c r="B25" s="19"/>
+      <x:c r="C25" s="18"/>
+      <x:c r="D25" s="19"/>
+      <x:c r="E25" s="20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:5" customFormat="1">
+      <x:c r="B26" s="19"/>
+      <x:c r="C26" s="18"/>
+      <x:c r="D26" s="19"/>
+      <x:c r="E26" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:5">
+      <x:c r="B27" s="19"/>
+      <x:c r="C27" s="18"/>
+      <x:c r="D27" s="18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E27" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:5" customFormat="1">
+      <x:c r="B28" s="19"/>
+      <x:c r="C28" s="18"/>
+      <x:c r="D28" s="18"/>
+      <x:c r="E28" s="20" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:5" customFormat="1">
+      <x:c r="B29" s="19"/>
+      <x:c r="C29" s="18"/>
+      <x:c r="D29" s="18"/>
+      <x:c r="E29" s="20" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="2:5" customFormat="1">
+      <x:c r="B30" s="19"/>
+      <x:c r="C30" s="18"/>
+      <x:c r="D30" s="18"/>
+      <x:c r="E30" s="20" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="2:5" customFormat="1">
+      <x:c r="B31" s="19"/>
+      <x:c r="C31" s="18"/>
+      <x:c r="D31" s="18"/>
+      <x:c r="E31" s="20" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:5" customFormat="1">
+      <x:c r="B32" s="19"/>
+      <x:c r="C32" s="18"/>
+      <x:c r="D32" s="18"/>
+      <x:c r="E32" s="20" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="2:5" customFormat="1">
+      <x:c r="B33" s="19"/>
+      <x:c r="C33" s="18"/>
+      <x:c r="D33" s="18"/>
+      <x:c r="E33" s="20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:5" customFormat="1">
+      <x:c r="B34" s="19"/>
+      <x:c r="C34" s="18"/>
+      <x:c r="D34" s="18"/>
+      <x:c r="E34" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:5">
+      <x:c r="B35" s="19"/>
+      <x:c r="C35" s="18"/>
+      <x:c r="D35" s="18" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E35" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="2:5" customFormat="1">
+      <x:c r="B36" s="19"/>
+      <x:c r="C36" s="18"/>
+      <x:c r="D36" s="19"/>
+      <x:c r="E36" s="20" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="2:5" customFormat="1">
+      <x:c r="B37" s="19"/>
+      <x:c r="C37" s="18"/>
+      <x:c r="D37" s="19"/>
+      <x:c r="E37" s="20" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="2:5" customFormat="1">
+      <x:c r="B38" s="19"/>
+      <x:c r="C38" s="18"/>
+      <x:c r="D38" s="19"/>
+      <x:c r="E38" s="20" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="2:5" customFormat="1">
+      <x:c r="B39" s="19"/>
+      <x:c r="C39" s="18"/>
+      <x:c r="D39" s="19"/>
+      <x:c r="E39" s="20" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="2:5" customFormat="1">
+      <x:c r="B40" s="19"/>
+      <x:c r="C40" s="18"/>
+      <x:c r="D40" s="19"/>
+      <x:c r="E40" s="20" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="2:5" customFormat="1">
+      <x:c r="B41" s="19"/>
+      <x:c r="C41" s="18"/>
+      <x:c r="D41" s="19"/>
+      <x:c r="E41" s="20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="2:5" customFormat="1">
+      <x:c r="B42" s="19"/>
+      <x:c r="C42" s="18"/>
+      <x:c r="D42" s="19"/>
+      <x:c r="E42" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="2:5">
+      <x:c r="B43" s="19"/>
+      <x:c r="C43" s="18"/>
+      <x:c r="D43" s="18" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E43" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="2:5" customFormat="1">
+      <x:c r="B44" s="19"/>
+      <x:c r="C44" s="18"/>
+      <x:c r="D44" s="19"/>
+      <x:c r="E44" s="20" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="2:5" customFormat="1">
+      <x:c r="B45" s="19"/>
+      <x:c r="C45" s="18"/>
+      <x:c r="D45" s="19"/>
+      <x:c r="E45" s="20" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="2:5" customFormat="1">
+      <x:c r="B46" s="19"/>
+      <x:c r="C46" s="18"/>
+      <x:c r="D46" s="19"/>
+      <x:c r="E46" s="20" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="2:5" customFormat="1">
+      <x:c r="B47" s="19"/>
+      <x:c r="C47" s="18"/>
+      <x:c r="D47" s="19"/>
+      <x:c r="E47" s="20" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="2:5" customFormat="1">
+      <x:c r="B48" s="19"/>
+      <x:c r="C48" s="18"/>
+      <x:c r="D48" s="19"/>
+      <x:c r="E48" s="20" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="2:5" customFormat="1">
+      <x:c r="B49" s="19"/>
+      <x:c r="C49" s="18"/>
+      <x:c r="D49" s="19"/>
+      <x:c r="E49" s="20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="2:5" customFormat="1">
+      <x:c r="B50" s="19"/>
+      <x:c r="C50" s="18"/>
+      <x:c r="D50" s="19"/>
+      <x:c r="E50" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="2:5">
+      <x:c r="B51" s="19"/>
+      <x:c r="C51" s="18"/>
+      <x:c r="D51" s="18" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E51" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="2:5" customFormat="1">
+      <x:c r="B52" s="19"/>
+      <x:c r="C52" s="18"/>
+      <x:c r="D52" s="19"/>
+      <x:c r="E52" s="20" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="2:5" customFormat="1">
+      <x:c r="B53" s="19"/>
+      <x:c r="C53" s="18"/>
+      <x:c r="D53" s="19"/>
+      <x:c r="E53" s="20" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="2:5" customFormat="1">
+      <x:c r="B54" s="19"/>
+      <x:c r="C54" s="18"/>
+      <x:c r="D54" s="19"/>
+      <x:c r="E54" s="20" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="2:5" customFormat="1">
+      <x:c r="B55" s="19"/>
+      <x:c r="C55" s="18"/>
+      <x:c r="D55" s="19"/>
+      <x:c r="E55" s="20" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="2:5" customFormat="1">
+      <x:c r="B56" s="19"/>
+      <x:c r="C56" s="18"/>
+      <x:c r="D56" s="19"/>
+      <x:c r="E56" s="20" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="2:5" customFormat="1">
+      <x:c r="B57" s="19"/>
+      <x:c r="C57" s="18"/>
+      <x:c r="D57" s="19"/>
+      <x:c r="E57" s="20" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="2:5" customFormat="1">
+      <x:c r="B58" s="19"/>
+      <x:c r="C58" s="18"/>
+      <x:c r="D58" s="19"/>
+      <x:c r="E58" s="20" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="2:5" customFormat="1">
+      <x:c r="B59" s="19"/>
+      <x:c r="C59" s="18"/>
+      <x:c r="D59" s="19"/>
+      <x:c r="E59" s="20" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="2:5">
+      <x:c r="B60" s="19"/>
+      <x:c r="C60" s="18"/>
+      <x:c r="D60" s="18" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E60" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="2:5">
+      <x:c r="B61" s="19"/>
+      <x:c r="C61" s="18"/>
+      <x:c r="D61" s="19" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E61" s="20" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="2:6" customFormat="1">
+      <x:c r="B62" s="19"/>
+      <x:c r="C62" s="18"/>
+      <x:c r="D62" s="19"/>
+      <x:c r="E62" s="20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F62" s="4"/>
+    </x:row>
+    <x:row r="63" spans="2:6" customFormat="1">
+      <x:c r="B63" s="19"/>
+      <x:c r="C63" s="18"/>
+      <x:c r="D63" s="19"/>
+      <x:c r="E63" s="20" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F63" s="4"/>
+    </x:row>
+    <x:row r="64" spans="2:6" customFormat="1">
+      <x:c r="B64" s="19"/>
+      <x:c r="C64" s="18"/>
+      <x:c r="D64" s="19"/>
+      <x:c r="E64" s="20" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F64" s="4"/>
+    </x:row>
+    <x:row r="65" spans="2:6" customFormat="1">
+      <x:c r="B65" s="19"/>
+      <x:c r="C65" s="18"/>
+      <x:c r="D65" s="19"/>
+      <x:c r="E65" s="20" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F65" s="4"/>
+    </x:row>
+    <x:row r="66" spans="2:6" customFormat="1">
+      <x:c r="B66" s="19"/>
+      <x:c r="C66" s="18"/>
+      <x:c r="D66" s="19"/>
+      <x:c r="E66" s="20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F66" s="4"/>
+    </x:row>
+    <x:row r="67" spans="2:6" customFormat="1">
+      <x:c r="B67" s="28"/>
+      <x:c r="C67" s="27"/>
+      <x:c r="D67" s="28"/>
+      <x:c r="E67" s="29"/>
+      <x:c r="F67" s="4"/>
+    </x:row>
+    <x:row r="68" spans="2:5">
+      <x:c r="B68" s="19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C68" s="18" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D68" s="19"/>
+      <x:c r="E68" s="20"/>
+    </x:row>
+    <x:row r="69" spans="2:5">
+      <x:c r="B69" s="19"/>
+      <x:c r="C69" s="18"/>
+      <x:c r="D69" s="18" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E69" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="2:5" customFormat="1">
+      <x:c r="B70" s="19"/>
+      <x:c r="C70" s="18"/>
+      <x:c r="D70" s="22" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E70" s="20" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="2:5" customFormat="1">
+      <x:c r="B71" s="19"/>
+      <x:c r="C71" s="18"/>
+      <x:c r="D71" s="18"/>
+      <x:c r="E71" s="20" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="2:5" customFormat="1">
+      <x:c r="B72" s="19"/>
+      <x:c r="C72" s="18"/>
+      <x:c r="D72" s="18"/>
+      <x:c r="E72" s="20" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="2:5" customFormat="1">
+      <x:c r="B73" s="19"/>
+      <x:c r="C73" s="18"/>
+      <x:c r="D73" s="18"/>
+      <x:c r="E73" s="20" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="2:5" customFormat="1">
+      <x:c r="B74" s="19"/>
+      <x:c r="C74" s="18"/>
+      <x:c r="D74" s="18"/>
+      <x:c r="E74" s="20" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="2:5" customFormat="1">
+      <x:c r="B75" s="19"/>
+      <x:c r="C75" s="18"/>
+      <x:c r="D75" s="18"/>
+      <x:c r="E75" s="20" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="2:5" customFormat="1">
+      <x:c r="B76" s="19"/>
+      <x:c r="C76" s="18"/>
+      <x:c r="D76" s="18"/>
+      <x:c r="E76" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="2:5">
+      <x:c r="B77" s="19"/>
+      <x:c r="C77" s="18"/>
+      <x:c r="D77" s="18" t="s">
         <x:v>59</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="3:4">
-      <x:c r="C4" s="7" t="s">
+      <x:c r="E77" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="2:5" customFormat="1">
+      <x:c r="B78" s="19"/>
+      <x:c r="C78" s="18"/>
+      <x:c r="D78" s="18"/>
+      <x:c r="E78" s="20" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="2:5">
+      <x:c r="B79" s="19"/>
+      <x:c r="C79" s="18"/>
+      <x:c r="D79" s="18" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E79" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="2:5" customFormat="1">
+      <x:c r="B80" s="19"/>
+      <x:c r="C80" s="18"/>
+      <x:c r="D80" s="18"/>
+      <x:c r="E80" s="20" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="2:5">
+      <x:c r="B81" s="19"/>
+      <x:c r="C81" s="18"/>
+      <x:c r="D81" s="18" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E81" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="2:5" customFormat="1">
+      <x:c r="B82" s="19"/>
+      <x:c r="C82" s="18"/>
+      <x:c r="D82" s="18"/>
+      <x:c r="E82" s="20" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="2:5">
+      <x:c r="B83" s="19"/>
+      <x:c r="C83" s="18"/>
+      <x:c r="D83" s="18" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E83" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="2:5" customFormat="1">
+      <x:c r="B84" s="19"/>
+      <x:c r="C84" s="18"/>
+      <x:c r="D84" s="18"/>
+      <x:c r="E84" s="20" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="2:5">
+      <x:c r="B85" s="19"/>
+      <x:c r="C85" s="18"/>
+      <x:c r="D85" s="18" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E85" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="2:5">
+      <x:c r="B86" s="19"/>
+      <x:c r="C86" s="18"/>
+      <x:c r="D86" s="19"/>
+      <x:c r="E86" s="20" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="2:5" customFormat="1">
+      <x:c r="B87" s="28"/>
+      <x:c r="C87" s="27"/>
+      <x:c r="D87" s="28"/>
+      <x:c r="E87" s="29"/>
+    </x:row>
+    <x:row r="88" spans="2:5">
+      <x:c r="B88" s="19" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C88" s="23" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D88" s="19"/>
+      <x:c r="E88" s="20"/>
+    </x:row>
+    <x:row r="89" spans="2:5">
+      <x:c r="B89" s="19"/>
+      <x:c r="C89" s="23"/>
+      <x:c r="D89" s="18" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E89" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="2:5" customFormat="1">
+      <x:c r="B90" s="19"/>
+      <x:c r="C90" s="23"/>
+      <x:c r="D90" s="22" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E90" s="20" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="2:5" customFormat="1">
+      <x:c r="B91" s="19"/>
+      <x:c r="C91" s="23"/>
+      <x:c r="D91" s="18"/>
+      <x:c r="E91" s="20" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="2:5" customFormat="1">
+      <x:c r="B92" s="19"/>
+      <x:c r="C92" s="23"/>
+      <x:c r="D92" s="18"/>
+      <x:c r="E92" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="2:5">
+      <x:c r="B93" s="19"/>
+      <x:c r="C93" s="18"/>
+      <x:c r="D93" s="18" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E93" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="2:5" customFormat="1">
+      <x:c r="B94" s="19"/>
+      <x:c r="C94" s="18"/>
+      <x:c r="D94" s="18"/>
+      <x:c r="E94" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="2:5" customFormat="1">
+      <x:c r="B95" s="19"/>
+      <x:c r="C95" s="18"/>
+      <x:c r="D95" s="18"/>
+      <x:c r="E95" s="20" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="2:5" customFormat="1">
+      <x:c r="B96" s="19"/>
+      <x:c r="C96" s="18"/>
+      <x:c r="D96" s="18"/>
+      <x:c r="E96" s="20" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="2:5" customFormat="1">
+      <x:c r="B97" s="19"/>
+      <x:c r="C97" s="18"/>
+      <x:c r="D97" s="18"/>
+      <x:c r="E97" s="20" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="2:5" customFormat="1">
+      <x:c r="B98" s="19"/>
+      <x:c r="C98" s="18"/>
+      <x:c r="D98" s="18"/>
+      <x:c r="E98" s="20" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="2:5" customFormat="1">
+      <x:c r="B99" s="19"/>
+      <x:c r="C99" s="18"/>
+      <x:c r="D99" s="18"/>
+      <x:c r="E99" s="20" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="2:5" customFormat="1">
+      <x:c r="B100" s="19"/>
+      <x:c r="C100" s="18"/>
+      <x:c r="D100" s="18"/>
+      <x:c r="E100" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="2:5">
+      <x:c r="B101" s="19"/>
+      <x:c r="C101" s="18"/>
+      <x:c r="D101" s="18" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E101" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="2:5" customFormat="1">
+      <x:c r="B102" s="19"/>
+      <x:c r="C102" s="18"/>
+      <x:c r="D102" s="18"/>
+      <x:c r="E102" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="2:5" customFormat="1">
+      <x:c r="B103" s="19"/>
+      <x:c r="C103" s="18"/>
+      <x:c r="D103" s="18"/>
+      <x:c r="E103" s="20" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="2:5" customFormat="1">
+      <x:c r="B104" s="19"/>
+      <x:c r="C104" s="18"/>
+      <x:c r="D104" s="18"/>
+      <x:c r="E104" s="20" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="2:5" customFormat="1">
+      <x:c r="B105" s="19"/>
+      <x:c r="C105" s="18"/>
+      <x:c r="D105" s="18"/>
+      <x:c r="E105" s="20" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="2:5" customFormat="1">
+      <x:c r="B106" s="19"/>
+      <x:c r="C106" s="18"/>
+      <x:c r="D106" s="18"/>
+      <x:c r="E106" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="2:5">
+      <x:c r="B107" s="19"/>
+      <x:c r="C107" s="18"/>
+      <x:c r="D107" s="18" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E107" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="2:5" customFormat="1">
+      <x:c r="B108" s="19"/>
+      <x:c r="C108" s="18"/>
+      <x:c r="D108" s="18"/>
+      <x:c r="E108" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="2:5" customFormat="1">
+      <x:c r="B109" s="19"/>
+      <x:c r="C109" s="18"/>
+      <x:c r="D109" s="18"/>
+      <x:c r="E109" s="20" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="2:5" customFormat="1">
+      <x:c r="B110" s="19"/>
+      <x:c r="C110" s="18"/>
+      <x:c r="D110" s="18"/>
+      <x:c r="E110" s="20" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="2:5" customFormat="1">
+      <x:c r="B111" s="19"/>
+      <x:c r="C111" s="18"/>
+      <x:c r="D111" s="18"/>
+      <x:c r="E111" s="20" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="2:5" customFormat="1">
+      <x:c r="B112" s="19"/>
+      <x:c r="C112" s="18"/>
+      <x:c r="D112" s="18"/>
+      <x:c r="E112" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="2:5">
+      <x:c r="B113" s="19"/>
+      <x:c r="C113" s="18"/>
+      <x:c r="D113" s="18" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E113" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="2:5" customFormat="1">
+      <x:c r="B114" s="19"/>
+      <x:c r="C114" s="18"/>
+      <x:c r="D114" s="18"/>
+      <x:c r="E114" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="2:5" customFormat="1">
+      <x:c r="B115" s="19"/>
+      <x:c r="C115" s="18"/>
+      <x:c r="D115" s="18"/>
+      <x:c r="E115" s="20" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="2:5" customFormat="1">
+      <x:c r="B116" s="19"/>
+      <x:c r="C116" s="18"/>
+      <x:c r="D116" s="18"/>
+      <x:c r="E116" s="20" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="2:5" customFormat="1">
+      <x:c r="B117" s="19"/>
+      <x:c r="C117" s="18"/>
+      <x:c r="D117" s="18"/>
+      <x:c r="E117" s="20" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="2:5" customFormat="1">
+      <x:c r="B118" s="19"/>
+      <x:c r="C118" s="18"/>
+      <x:c r="D118" s="18"/>
+      <x:c r="E118" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="2:5">
+      <x:c r="B119" s="19"/>
+      <x:c r="C119" s="18"/>
+      <x:c r="D119" s="18" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E119" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="2:5" customFormat="1">
+      <x:c r="B120" s="19"/>
+      <x:c r="C120" s="18"/>
+      <x:c r="D120" s="18"/>
+      <x:c r="E120" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="2:5" customFormat="1">
+      <x:c r="B121" s="19"/>
+      <x:c r="C121" s="18"/>
+      <x:c r="D121" s="18"/>
+      <x:c r="E121" s="20" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="2:5" customFormat="1">
+      <x:c r="B122" s="19"/>
+      <x:c r="C122" s="18"/>
+      <x:c r="D122" s="18"/>
+      <x:c r="E122" s="20" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="2:5" customFormat="1">
+      <x:c r="B123" s="19"/>
+      <x:c r="C123" s="18"/>
+      <x:c r="D123" s="18"/>
+      <x:c r="E123" s="20" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="2:5" customFormat="1">
+      <x:c r="B124" s="19"/>
+      <x:c r="C124" s="18"/>
+      <x:c r="D124" s="18"/>
+      <x:c r="E124" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="2:5">
+      <x:c r="B125" s="19"/>
+      <x:c r="C125" s="18"/>
+      <x:c r="D125" s="18" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E125" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="2:5" customFormat="1">
+      <x:c r="B126" s="19"/>
+      <x:c r="C126" s="18"/>
+      <x:c r="D126" s="18"/>
+      <x:c r="E126" s="20" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="2:5" customFormat="1">
+      <x:c r="B127" s="19"/>
+      <x:c r="C127" s="18"/>
+      <x:c r="D127" s="18"/>
+      <x:c r="E127" s="20" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="2:5" customFormat="1">
+      <x:c r="B128" s="19"/>
+      <x:c r="C128" s="18"/>
+      <x:c r="D128" s="18"/>
+      <x:c r="E128" s="20" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="2:5" customFormat="1">
+      <x:c r="B129" s="19"/>
+      <x:c r="C129" s="18"/>
+      <x:c r="D129" s="18"/>
+      <x:c r="E129" s="20" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="2:5" customFormat="1">
+      <x:c r="B130" s="19"/>
+      <x:c r="C130" s="18"/>
+      <x:c r="D130" s="18"/>
+      <x:c r="E130" s="20" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="2:5" customFormat="1">
+      <x:c r="B131" s="19"/>
+      <x:c r="C131" s="18"/>
+      <x:c r="D131" s="18"/>
+      <x:c r="E131" s="20" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="2:5">
+      <x:c r="B132" s="19"/>
+      <x:c r="C132" s="18"/>
+      <x:c r="D132" s="18" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E132" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="2:5" customFormat="1">
+      <x:c r="B133" s="19"/>
+      <x:c r="C133" s="18"/>
+      <x:c r="D133" s="24" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E133" s="25" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="2:5" customFormat="1">
+      <x:c r="B134" s="19"/>
+      <x:c r="C134" s="18"/>
+      <x:c r="D134" s="18"/>
+      <x:c r="E134" s="20" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="2:5" customFormat="1">
+      <x:c r="B135" s="19"/>
+      <x:c r="C135" s="18"/>
+      <x:c r="D135" s="18"/>
+      <x:c r="E135" s="20" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="2:5" customFormat="1">
+      <x:c r="B136" s="19"/>
+      <x:c r="C136" s="18"/>
+      <x:c r="D136" s="18"/>
+      <x:c r="E136" s="20" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="2:5" customFormat="1">
+      <x:c r="B137" s="19"/>
+      <x:c r="C137" s="18"/>
+      <x:c r="D137" s="18"/>
+      <x:c r="E137" s="20" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="2:5" customFormat="1">
+      <x:c r="B138" s="19"/>
+      <x:c r="C138" s="18"/>
+      <x:c r="D138" s="18"/>
+      <x:c r="E138" s="20" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="2:5">
+      <x:c r="B139" s="28"/>
+      <x:c r="C139" s="27"/>
+      <x:c r="D139" s="28"/>
+      <x:c r="E139" s="30"/>
+    </x:row>
+    <x:row r="140" spans="2:5">
+      <x:c r="B140" s="19" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C140" s="18" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D140" s="19"/>
+      <x:c r="E140" s="20"/>
+    </x:row>
+    <x:row r="141" spans="2:5">
+      <x:c r="B141" s="19"/>
+      <x:c r="C141" s="18"/>
+      <x:c r="D141" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E141" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="2:5" customFormat="1">
+      <x:c r="B142" s="19"/>
+      <x:c r="C142" s="18"/>
+      <x:c r="D142" s="18"/>
+      <x:c r="E142" s="20" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="2:5" customFormat="1">
+      <x:c r="B143" s="19"/>
+      <x:c r="C143" s="18"/>
+      <x:c r="D143" s="18"/>
+      <x:c r="E143" s="20" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="2:5" customFormat="1">
+      <x:c r="B144" s="19"/>
+      <x:c r="C144" s="18"/>
+      <x:c r="D144" s="18"/>
+      <x:c r="E144" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="2:5">
+      <x:c r="B145" s="19"/>
+      <x:c r="C145" s="18"/>
+      <x:c r="D145" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E145" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="2:5" customFormat="1">
+      <x:c r="B146" s="19"/>
+      <x:c r="C146" s="18"/>
+      <x:c r="D146" s="18"/>
+      <x:c r="E146" s="20" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="2:5" customFormat="1">
+      <x:c r="B147" s="19"/>
+      <x:c r="C147" s="18"/>
+      <x:c r="D147" s="18"/>
+      <x:c r="E147" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="2:5">
+      <x:c r="B148" s="19"/>
+      <x:c r="C148" s="18"/>
+      <x:c r="D148" s="18" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E148" s="21" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="2:5" customFormat="1">
+      <x:c r="B149" s="19"/>
+      <x:c r="C149" s="18"/>
+      <x:c r="D149" s="18"/>
+      <x:c r="E149" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="2:5" customFormat="1">
+      <x:c r="B150" s="19"/>
+      <x:c r="C150" s="18"/>
+      <x:c r="D150" s="18"/>
+      <x:c r="E150" s="20" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="2:5">
+      <x:c r="B151" s="19"/>
+      <x:c r="C151" s="18"/>
+      <x:c r="D151" s="18" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E151" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="2:5" customFormat="1">
+      <x:c r="B152" s="19"/>
+      <x:c r="C152" s="18"/>
+      <x:c r="D152" s="18"/>
+      <x:c r="E152" s="20" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="2:5" customFormat="1">
+      <x:c r="B153" s="19"/>
+      <x:c r="C153" s="18"/>
+      <x:c r="D153" s="18"/>
+      <x:c r="E153" s="20" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="2:5">
+      <x:c r="B154" s="19"/>
+      <x:c r="C154" s="18"/>
+      <x:c r="D154" s="18" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E154" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="2:5" customFormat="1">
+      <x:c r="B155" s="19"/>
+      <x:c r="C155" s="18"/>
+      <x:c r="D155" s="18"/>
+      <x:c r="E155" s="21"/>
+    </x:row>
+    <x:row r="156" spans="2:5">
+      <x:c r="B156" s="19"/>
+      <x:c r="C156" s="18"/>
+      <x:c r="D156" s="18" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E156" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="2:5" customFormat="1">
+      <x:c r="B157" s="19"/>
+      <x:c r="C157" s="18"/>
+      <x:c r="D157" s="18"/>
+      <x:c r="E157" s="20" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="2:5" customFormat="1">
+      <x:c r="B158" s="19"/>
+      <x:c r="C158" s="18"/>
+      <x:c r="D158" s="18"/>
+      <x:c r="E158" s="20" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="2:5" customFormat="1">
+      <x:c r="B159" s="19"/>
+      <x:c r="C159" s="18"/>
+      <x:c r="D159" s="18"/>
+      <x:c r="E159" s="20" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="2:5" customFormat="1">
+      <x:c r="B160" s="19"/>
+      <x:c r="C160" s="18"/>
+      <x:c r="D160" s="18"/>
+      <x:c r="E160" s="20" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D4" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:4" customFormat="1">
-      <x:c r="B5" s="7"/>
-      <x:c r="C5" s="6"/>
-      <x:c r="D5" s="4" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="4:4">
-      <x:c r="D6" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="4:4">
-      <x:c r="D7" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="4:4">
-      <x:c r="D8" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="4:4">
-      <x:c r="D9" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="3:4">
-      <x:c r="C10" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:4" customFormat="1">
-      <x:c r="B11" s="7"/>
-      <x:c r="C11" s="6"/>
-      <x:c r="D11" s="4" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:4" customFormat="1">
-      <x:c r="B12" s="7"/>
-      <x:c r="C12" s="6"/>
-      <x:c r="D12" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:4" customFormat="1">
-      <x:c r="B13" s="7"/>
-      <x:c r="C13" s="6"/>
-      <x:c r="D13" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:4" customFormat="1">
-      <x:c r="B14" s="7"/>
-      <x:c r="C14" s="6"/>
-      <x:c r="D14" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="3:4">
-      <x:c r="C15" s="7" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D15" s="5" t="s">
+    </x:row>
+    <x:row r="161" spans="2:5" customFormat="1">
+      <x:c r="B161" s="19"/>
+      <x:c r="C161" s="18"/>
+      <x:c r="D161" s="18"/>
+      <x:c r="E161" s="20" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="2:5" customFormat="1">
+      <x:c r="B162" s="19"/>
+      <x:c r="C162" s="18"/>
+      <x:c r="D162" s="18"/>
+      <x:c r="E162" s="20" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="2:5" customFormat="1">
+      <x:c r="B163" s="19"/>
+      <x:c r="C163" s="18"/>
+      <x:c r="D163" s="18"/>
+      <x:c r="E163" s="20" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="2:5" customFormat="1">
+      <x:c r="B164" s="19"/>
+      <x:c r="C164" s="18"/>
+      <x:c r="D164" s="18"/>
+      <x:c r="E164" s="26" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="2:5">
+      <x:c r="B165" s="19"/>
+      <x:c r="C165" s="18"/>
+      <x:c r="D165" s="18" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E165" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="2:5">
+      <x:c r="B166" s="19"/>
+      <x:c r="C166" s="18"/>
+      <x:c r="D166" s="19"/>
+      <x:c r="E166" s="20" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="2:5">
+      <x:c r="B167" s="19"/>
+      <x:c r="C167" s="18"/>
+      <x:c r="D167" s="19"/>
+      <x:c r="E167" s="20" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="2:5">
+      <x:c r="B168" s="19"/>
+      <x:c r="C168" s="18"/>
+      <x:c r="D168" s="19"/>
+      <x:c r="E168" s="20" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="2:5">
+      <x:c r="B169" s="19"/>
+      <x:c r="C169" s="18"/>
+      <x:c r="D169" s="19"/>
+      <x:c r="E169" s="20" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="2:5">
+      <x:c r="B170" s="19"/>
+      <x:c r="C170" s="18"/>
+      <x:c r="D170" s="19"/>
+      <x:c r="E170" s="20" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="2:5">
+      <x:c r="B171" s="19"/>
+      <x:c r="C171" s="18"/>
+      <x:c r="D171" s="19"/>
+      <x:c r="E171" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="2:5">
+      <x:c r="B172" s="19"/>
+      <x:c r="C172" s="18"/>
+      <x:c r="D172" s="19"/>
+      <x:c r="E172" s="20" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="2:5">
+      <x:c r="B173" s="19"/>
+      <x:c r="C173" s="18"/>
+      <x:c r="D173" s="19"/>
+      <x:c r="E173" s="20" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="2:5">
+      <x:c r="B174" s="19"/>
+      <x:c r="C174" s="18"/>
+      <x:c r="D174" s="19"/>
+      <x:c r="E174" s="20" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="2:4" customFormat="1">
-      <x:c r="B16" s="7"/>
-      <x:c r="C16" s="6"/>
-      <x:c r="D16" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:4" customFormat="1">
-      <x:c r="B17" s="7"/>
-      <x:c r="C17" s="6"/>
-      <x:c r="D17" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:4" customFormat="1">
-      <x:c r="B18" s="7"/>
-      <x:c r="C18" s="6"/>
-      <x:c r="D18" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:4" customFormat="1">
-      <x:c r="B19" s="7"/>
-      <x:c r="C19" s="6"/>
-      <x:c r="D19" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:4" customFormat="1">
-      <x:c r="B20" s="7"/>
-      <x:c r="C20" s="6"/>
-      <x:c r="D20" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="2:4" customFormat="1">
-      <x:c r="B21" s="7"/>
-      <x:c r="C21" s="6"/>
-      <x:c r="D21" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:4" customFormat="1">
-      <x:c r="B22" s="7"/>
-      <x:c r="C22" s="6"/>
-      <x:c r="D22" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="3:4">
-      <x:c r="C23" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D23" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:4" customFormat="1">
-      <x:c r="B24" s="7"/>
-      <x:c r="C24" s="7"/>
-      <x:c r="D24" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="2:4" customFormat="1">
-      <x:c r="B25" s="7"/>
-      <x:c r="C25" s="7"/>
-      <x:c r="D25" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="2:4" customFormat="1">
-      <x:c r="B26" s="7"/>
-      <x:c r="C26" s="7"/>
-      <x:c r="D26" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="2:4" customFormat="1">
-      <x:c r="B27" s="7"/>
-      <x:c r="C27" s="7"/>
-      <x:c r="D27" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:4" customFormat="1">
-      <x:c r="B28" s="7"/>
-      <x:c r="C28" s="7"/>
-      <x:c r="D28" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="2:4" customFormat="1">
-      <x:c r="B29" s="7"/>
-      <x:c r="C29" s="7"/>
-      <x:c r="D29" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="2:4" customFormat="1">
-      <x:c r="B30" s="7"/>
-      <x:c r="C30" s="7"/>
-      <x:c r="D30" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="3:4">
-      <x:c r="C31" s="7" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D31" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="2:4" customFormat="1">
-      <x:c r="B32" s="7"/>
-      <x:c r="C32" s="6"/>
-      <x:c r="D32" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="2:4" customFormat="1">
-      <x:c r="B33" s="7"/>
-      <x:c r="C33" s="6"/>
-      <x:c r="D33" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="2:4" customFormat="1">
-      <x:c r="B34" s="7"/>
-      <x:c r="C34" s="6"/>
-      <x:c r="D34" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="2:4" customFormat="1">
-      <x:c r="B35" s="7"/>
-      <x:c r="C35" s="6"/>
-      <x:c r="D35" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="2:4" customFormat="1">
-      <x:c r="B36" s="7"/>
-      <x:c r="C36" s="6"/>
-      <x:c r="D36" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="2:4" customFormat="1">
-      <x:c r="B37" s="7"/>
-      <x:c r="C37" s="6"/>
-      <x:c r="D37" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="2:4" customFormat="1">
-      <x:c r="B38" s="7"/>
-      <x:c r="C38" s="6"/>
-      <x:c r="D38" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="3:4">
-      <x:c r="C39" s="7" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D39" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="2:4" customFormat="1">
-      <x:c r="B40" s="7"/>
-      <x:c r="C40" s="6"/>
-      <x:c r="D40" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="2:4" customFormat="1">
-      <x:c r="B41" s="7"/>
-      <x:c r="C41" s="6"/>
-      <x:c r="D41" s="4" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="2:4" customFormat="1">
-      <x:c r="B42" s="7"/>
-      <x:c r="C42" s="6"/>
-      <x:c r="D42" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="2:4" customFormat="1">
-      <x:c r="B43" s="7"/>
-      <x:c r="C43" s="6"/>
-      <x:c r="D43" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="2:4" customFormat="1">
-      <x:c r="B44" s="7"/>
-      <x:c r="C44" s="6"/>
-      <x:c r="D44" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="2:4" customFormat="1">
-      <x:c r="B45" s="7"/>
-      <x:c r="C45" s="6"/>
-      <x:c r="D45" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="2:4" customFormat="1">
-      <x:c r="B46" s="7"/>
-      <x:c r="C46" s="6"/>
-      <x:c r="D46" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="3:4">
-      <x:c r="C47" s="7" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D47" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="2:4" customFormat="1">
-      <x:c r="B48" s="7"/>
-      <x:c r="C48" s="6"/>
-      <x:c r="D48" s="4" t="s">
-        <x:v>77</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="2:4" customFormat="1">
-      <x:c r="B49" s="7"/>
-      <x:c r="C49" s="6"/>
-      <x:c r="D49" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="2:4" customFormat="1">
-      <x:c r="B50" s="7"/>
-      <x:c r="C50" s="6"/>
-      <x:c r="D50" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="2:4" customFormat="1">
-      <x:c r="B51" s="7"/>
-      <x:c r="C51" s="6"/>
-      <x:c r="D51" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="2:4" customFormat="1">
-      <x:c r="B52" s="7"/>
-      <x:c r="C52" s="6"/>
-      <x:c r="D52" s="4" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="2:4" customFormat="1">
-      <x:c r="B53" s="7"/>
-      <x:c r="C53" s="6"/>
-      <x:c r="D53" s="4" t="s">
-        <x:v>79</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="2:4" customFormat="1">
-      <x:c r="B54" s="7"/>
-      <x:c r="C54" s="6"/>
-      <x:c r="D54" s="4" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="2:4" customFormat="1">
-      <x:c r="B55" s="7"/>
-      <x:c r="C55" s="6"/>
-      <x:c r="D55" s="4" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="3:4">
-      <x:c r="C56" s="7" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D56" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="4:4">
-      <x:c r="D57" s="4" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="2:5" customFormat="1">
-      <x:c r="B58" s="7"/>
-      <x:c r="C58" s="6"/>
-      <x:c r="D58" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E58" s="4"/>
-    </x:row>
-    <x:row r="59" spans="2:5" customFormat="1">
-      <x:c r="B59" s="7"/>
-      <x:c r="C59" s="6"/>
-      <x:c r="D59" s="4" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="E59" s="4"/>
-    </x:row>
-    <x:row r="60" spans="2:5" customFormat="1">
-      <x:c r="B60" s="7"/>
-      <x:c r="C60" s="6"/>
-      <x:c r="D60" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E60" s="4"/>
-    </x:row>
-    <x:row r="61" spans="2:5" customFormat="1">
-      <x:c r="B61" s="7"/>
-      <x:c r="C61" s="6"/>
-      <x:c r="D61" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E61" s="4"/>
-    </x:row>
-    <x:row r="62" spans="2:5" customFormat="1">
-      <x:c r="B62" s="7"/>
-      <x:c r="C62" s="6"/>
-      <x:c r="D62" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E62" s="4"/>
-    </x:row>
-    <x:row r="63" spans="2:2">
-      <x:c r="B63" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="2:2">
-      <x:c r="B64" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="3:4">
-      <x:c r="C65" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D65" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="2:4" customFormat="1">
-      <x:c r="B66" s="7"/>
-      <x:c r="C66" s="7"/>
-      <x:c r="D66" s="4" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="2:4" customFormat="1">
-      <x:c r="B67" s="7"/>
-      <x:c r="C67" s="7"/>
-      <x:c r="D67" s="4" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="2:4" customFormat="1">
-      <x:c r="B68" s="7"/>
-      <x:c r="C68" s="7"/>
-      <x:c r="D68" s="4" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="2:4" customFormat="1">
-      <x:c r="B69" s="7"/>
-      <x:c r="C69" s="7"/>
-      <x:c r="D69" s="4" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="2:4" customFormat="1">
-      <x:c r="B70" s="7"/>
-      <x:c r="C70" s="7"/>
-      <x:c r="D70" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="2:4" customFormat="1">
-      <x:c r="B71" s="7"/>
-      <x:c r="C71" s="7"/>
-      <x:c r="D71" s="4" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="2:4" customFormat="1">
-      <x:c r="B72" s="7"/>
-      <x:c r="C72" s="7"/>
-      <x:c r="D72" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="3:4">
-      <x:c r="C73" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D73" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="2:4" customFormat="1">
-      <x:c r="B74" s="7"/>
-      <x:c r="C74" s="7"/>
-      <x:c r="D74" s="4" t="s">
+    <x:row r="175" spans="2:5">
+      <x:c r="B175" s="19"/>
+      <x:c r="C175" s="18"/>
+      <x:c r="D175" s="19"/>
+      <x:c r="E175" s="20" t="s">
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="3:4">
-      <x:c r="C75" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D75" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="2:4" customFormat="1">
-      <x:c r="B76" s="7"/>
-      <x:c r="C76" s="7"/>
-      <x:c r="D76" s="4" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="3:4">
-      <x:c r="C77" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D77" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="2:4" customFormat="1">
-      <x:c r="B78" s="7"/>
-      <x:c r="C78" s="7"/>
-      <x:c r="D78" s="4" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="3:4">
-      <x:c r="C79" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D79" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="2:4" customFormat="1">
-      <x:c r="B80" s="7"/>
-      <x:c r="C80" s="7"/>
-      <x:c r="D80" s="4" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="3:4">
-      <x:c r="C81" s="7" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D81" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="4:4">
-      <x:c r="D82" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="2:2">
-      <x:c r="B83" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="2:2">
-      <x:c r="B84" s="8" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="2:4">
-      <x:c r="B85" s="8"/>
-      <x:c r="C85" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D85" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="3:4">
-      <x:c r="C86" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D86" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="3:4">
-      <x:c r="C87" s="7" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D87" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="3:4">
-      <x:c r="C88" s="7" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D88" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="3:4">
-      <x:c r="C89" s="7" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D89" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="3:4">
-      <x:c r="C90" s="7" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D90" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="3:4">
-      <x:c r="C91" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D91" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="3:4">
-      <x:c r="C92" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D92" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="2:2">
-      <x:c r="B94" s="7" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="2:2">
-      <x:c r="B95" s="7" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="3:4">
-      <x:c r="C96" s="7" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D96" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="3:4">
-      <x:c r="C97" s="7" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D97" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="3:4">
-      <x:c r="C98" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D98" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="3:4">
-      <x:c r="C99" s="7" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D99" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="3:4">
-      <x:c r="C100" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D100" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="3:4">
-      <x:c r="C101" s="7" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D101" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="3:4">
-      <x:c r="C102" s="7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D102" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="B1:E3"/>
+  </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
@@ -1832,7 +3251,7 @@
   <x:sheetData>
     <x:row r="5" spans="2:2">
       <x:c r="B5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:2">
@@ -1843,32 +3262,32 @@
     </x:row>
     <x:row r="8" spans="2:2">
       <x:c r="B8" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:2">
       <x:c r="B9" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:2">
       <x:c r="B10" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:2">
       <x:c r="B11" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:2">
       <x:c r="B12" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:2">
       <x:c r="B13" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
